--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -3,20 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA7F545-0D31-419E-BD7C-2076B83DFCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F6B10-D79C-4B78-88E4-C988A42CC2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="12078" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="12078" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all-cause deaths" sheetId="1" r:id="rId1"/>
-    <sheet name="covid deaths" sheetId="2" r:id="rId2"/>
+    <sheet name="by Quarter" sheetId="3" r:id="rId1"/>
+    <sheet name="conclusions" sheetId="5" r:id="rId2"/>
+    <sheet name="all-cause deaths" sheetId="1" r:id="rId3"/>
+    <sheet name="covid deaths by quarter" sheetId="4" r:id="rId4"/>
+    <sheet name="covid deaths" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="53">
   <si>
     <t>age_group</t>
   </si>
@@ -170,13 +186,35 @@
   <si>
     <t>Cells with a count less than 11 are censored</t>
   </si>
+  <si>
+    <t>NCACM</t>
+  </si>
+  <si>
+    <t>CACM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -204,8 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,6 +261,5535 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All cause deaths by Quarter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19 or under</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30-39</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40-49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50-59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60-69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80-89</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CACM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$2:$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$J$13:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-438D-4120-BA3C-98CA808DB031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1692670912"/>
+        <c:axId val="1692669952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1692670912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692669952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1692669952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692670912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NCACM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19 or under</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$25:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$26:$Y$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30-39</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$27:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40-49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$28:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50-59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$29:$Y$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60-69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$31:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80-89</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$32:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'by Quarter'!$B$24:$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q4 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$33:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D3D8-49F8-9B13-06B3FCA76440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1248273120"/>
+        <c:axId val="1248274080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1248273120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248274080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1248274080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248273120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0DAE21-9F2B-88F6-63EF-220A87277640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CB06F5-13D8-604E-ACD9-01F982600735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C757BD61-29FD-A98C-EB2C-D99CF684FBAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="304800"/>
+          <a:ext cx="10439400" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Q1 2021</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> vs Q1 2020 is HIGHLY statistically significant increase in NCACM (30%)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>the question of the Q4 2020 COVID deaths vs. Q1 2021 COVID deaths depends on COVID cases.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>there are two ways to esimate the COVID cases:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>1. the actual reported cases in LTCFs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>2. the wasewater</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +6070,2145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>28</v>
+      </c>
+      <c r="R3">
+        <v>32</v>
+      </c>
+      <c r="S3">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>26</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>35</v>
+      </c>
+      <c r="X3">
+        <v>35</v>
+      </c>
+      <c r="Y3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>38</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>37</v>
+      </c>
+      <c r="P4">
+        <v>38</v>
+      </c>
+      <c r="Q4">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>38</v>
+      </c>
+      <c r="S4">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>42</v>
+      </c>
+      <c r="U4">
+        <v>37</v>
+      </c>
+      <c r="V4">
+        <v>29</v>
+      </c>
+      <c r="W4">
+        <v>53</v>
+      </c>
+      <c r="X4">
+        <v>36</v>
+      </c>
+      <c r="Y4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>51</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>67</v>
+      </c>
+      <c r="O5">
+        <v>65</v>
+      </c>
+      <c r="P5">
+        <v>51</v>
+      </c>
+      <c r="Q5">
+        <v>68</v>
+      </c>
+      <c r="R5">
+        <v>62</v>
+      </c>
+      <c r="S5">
+        <v>61</v>
+      </c>
+      <c r="T5">
+        <v>51</v>
+      </c>
+      <c r="U5">
+        <v>66</v>
+      </c>
+      <c r="V5">
+        <v>58</v>
+      </c>
+      <c r="W5">
+        <v>68</v>
+      </c>
+      <c r="X5">
+        <v>58</v>
+      </c>
+      <c r="Y5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>86</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>98</v>
+      </c>
+      <c r="L6">
+        <v>109</v>
+      </c>
+      <c r="M6">
+        <v>107</v>
+      </c>
+      <c r="N6">
+        <v>102</v>
+      </c>
+      <c r="O6">
+        <v>83</v>
+      </c>
+      <c r="P6">
+        <v>102</v>
+      </c>
+      <c r="Q6">
+        <v>102</v>
+      </c>
+      <c r="R6">
+        <v>83</v>
+      </c>
+      <c r="S6">
+        <v>107</v>
+      </c>
+      <c r="T6">
+        <v>98</v>
+      </c>
+      <c r="U6">
+        <v>103</v>
+      </c>
+      <c r="V6">
+        <v>105</v>
+      </c>
+      <c r="W6">
+        <v>83</v>
+      </c>
+      <c r="X6">
+        <v>88</v>
+      </c>
+      <c r="Y6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>186</v>
+      </c>
+      <c r="C7">
+        <v>196</v>
+      </c>
+      <c r="D7">
+        <v>194</v>
+      </c>
+      <c r="E7">
+        <v>209</v>
+      </c>
+      <c r="F7">
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <v>195</v>
+      </c>
+      <c r="H7">
+        <v>182</v>
+      </c>
+      <c r="I7">
+        <v>202</v>
+      </c>
+      <c r="J7">
+        <v>231</v>
+      </c>
+      <c r="K7">
+        <v>183</v>
+      </c>
+      <c r="L7">
+        <v>232</v>
+      </c>
+      <c r="M7">
+        <v>232</v>
+      </c>
+      <c r="N7">
+        <v>281</v>
+      </c>
+      <c r="O7">
+        <v>194</v>
+      </c>
+      <c r="P7">
+        <v>203</v>
+      </c>
+      <c r="Q7">
+        <v>221</v>
+      </c>
+      <c r="R7">
+        <v>200</v>
+      </c>
+      <c r="S7">
+        <v>217</v>
+      </c>
+      <c r="T7">
+        <v>216</v>
+      </c>
+      <c r="U7">
+        <v>210</v>
+      </c>
+      <c r="V7">
+        <v>205</v>
+      </c>
+      <c r="W7">
+        <v>184</v>
+      </c>
+      <c r="X7">
+        <v>172</v>
+      </c>
+      <c r="Y7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>371</v>
+      </c>
+      <c r="C8">
+        <v>310</v>
+      </c>
+      <c r="D8">
+        <v>331</v>
+      </c>
+      <c r="E8">
+        <v>354</v>
+      </c>
+      <c r="F8">
+        <v>346</v>
+      </c>
+      <c r="G8">
+        <v>314</v>
+      </c>
+      <c r="H8">
+        <v>310</v>
+      </c>
+      <c r="I8">
+        <v>356</v>
+      </c>
+      <c r="J8">
+        <v>328</v>
+      </c>
+      <c r="K8">
+        <v>388</v>
+      </c>
+      <c r="L8">
+        <v>380</v>
+      </c>
+      <c r="M8">
+        <v>415</v>
+      </c>
+      <c r="N8">
+        <v>471</v>
+      </c>
+      <c r="O8">
+        <v>331</v>
+      </c>
+      <c r="P8">
+        <v>376</v>
+      </c>
+      <c r="Q8">
+        <v>362</v>
+      </c>
+      <c r="R8">
+        <v>408</v>
+      </c>
+      <c r="S8">
+        <v>325</v>
+      </c>
+      <c r="T8">
+        <v>360</v>
+      </c>
+      <c r="U8">
+        <v>447</v>
+      </c>
+      <c r="V8">
+        <v>408</v>
+      </c>
+      <c r="W8">
+        <v>360</v>
+      </c>
+      <c r="X8">
+        <v>343</v>
+      </c>
+      <c r="Y8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>541</v>
+      </c>
+      <c r="C9">
+        <v>460</v>
+      </c>
+      <c r="D9">
+        <v>419</v>
+      </c>
+      <c r="E9">
+        <v>499</v>
+      </c>
+      <c r="F9">
+        <v>449</v>
+      </c>
+      <c r="G9">
+        <v>439</v>
+      </c>
+      <c r="H9">
+        <v>426</v>
+      </c>
+      <c r="I9">
+        <v>513</v>
+      </c>
+      <c r="J9">
+        <v>595</v>
+      </c>
+      <c r="K9">
+        <v>481</v>
+      </c>
+      <c r="L9">
+        <v>483</v>
+      </c>
+      <c r="M9">
+        <v>612</v>
+      </c>
+      <c r="N9">
+        <v>734</v>
+      </c>
+      <c r="O9">
+        <v>490</v>
+      </c>
+      <c r="P9">
+        <v>483</v>
+      </c>
+      <c r="Q9">
+        <v>551</v>
+      </c>
+      <c r="R9">
+        <v>554</v>
+      </c>
+      <c r="S9">
+        <v>502</v>
+      </c>
+      <c r="T9">
+        <v>510</v>
+      </c>
+      <c r="U9">
+        <v>555</v>
+      </c>
+      <c r="V9">
+        <v>564</v>
+      </c>
+      <c r="W9">
+        <v>511</v>
+      </c>
+      <c r="X9">
+        <v>484</v>
+      </c>
+      <c r="Y9">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>846</v>
+      </c>
+      <c r="C10">
+        <v>633</v>
+      </c>
+      <c r="D10">
+        <v>694</v>
+      </c>
+      <c r="E10">
+        <v>717</v>
+      </c>
+      <c r="F10">
+        <v>820</v>
+      </c>
+      <c r="G10">
+        <v>704</v>
+      </c>
+      <c r="H10">
+        <v>629</v>
+      </c>
+      <c r="I10">
+        <v>756</v>
+      </c>
+      <c r="J10">
+        <v>832</v>
+      </c>
+      <c r="K10">
+        <v>733</v>
+      </c>
+      <c r="L10">
+        <v>719</v>
+      </c>
+      <c r="M10">
+        <v>875</v>
+      </c>
+      <c r="N10" s="1">
+        <v>932</v>
+      </c>
+      <c r="O10">
+        <v>633</v>
+      </c>
+      <c r="P10">
+        <v>694</v>
+      </c>
+      <c r="Q10">
+        <v>766</v>
+      </c>
+      <c r="R10">
+        <v>863</v>
+      </c>
+      <c r="S10">
+        <v>745</v>
+      </c>
+      <c r="T10">
+        <v>791</v>
+      </c>
+      <c r="U10">
+        <v>863</v>
+      </c>
+      <c r="V10">
+        <v>804</v>
+      </c>
+      <c r="W10">
+        <v>724</v>
+      </c>
+      <c r="X10">
+        <v>701</v>
+      </c>
+      <c r="Y10">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>730</v>
+      </c>
+      <c r="C11">
+        <v>547</v>
+      </c>
+      <c r="D11">
+        <v>470</v>
+      </c>
+      <c r="E11">
+        <v>626</v>
+      </c>
+      <c r="F11">
+        <v>641</v>
+      </c>
+      <c r="G11">
+        <v>573</v>
+      </c>
+      <c r="H11">
+        <v>609</v>
+      </c>
+      <c r="I11">
+        <v>637</v>
+      </c>
+      <c r="J11">
+        <v>625</v>
+      </c>
+      <c r="K11">
+        <v>628</v>
+      </c>
+      <c r="L11">
+        <v>636</v>
+      </c>
+      <c r="M11">
+        <v>791</v>
+      </c>
+      <c r="N11">
+        <v>789</v>
+      </c>
+      <c r="O11">
+        <v>556</v>
+      </c>
+      <c r="P11">
+        <v>542</v>
+      </c>
+      <c r="Q11">
+        <v>669</v>
+      </c>
+      <c r="R11">
+        <v>769</v>
+      </c>
+      <c r="S11">
+        <v>619</v>
+      </c>
+      <c r="T11">
+        <v>575</v>
+      </c>
+      <c r="U11">
+        <v>722</v>
+      </c>
+      <c r="V11">
+        <v>707</v>
+      </c>
+      <c r="W11">
+        <v>603</v>
+      </c>
+      <c r="X11">
+        <v>616</v>
+      </c>
+      <c r="Y11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>78</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>69</v>
+      </c>
+      <c r="N19">
+        <v>120</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>24</v>
+      </c>
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>59</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>27</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>25</v>
+      </c>
+      <c r="Y19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>118</v>
+      </c>
+      <c r="N20">
+        <v>194</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>54</v>
+      </c>
+      <c r="V20">
+        <v>29</v>
+      </c>
+      <c r="W20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>45</v>
+      </c>
+      <c r="M21">
+        <v>166</v>
+      </c>
+      <c r="N21">
+        <v>209</v>
+      </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>31</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>81</v>
+      </c>
+      <c r="S21">
+        <v>37</v>
+      </c>
+      <c r="T21">
+        <v>38</v>
+      </c>
+      <c r="U21">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>58</v>
+      </c>
+      <c r="W21">
+        <v>15</v>
+      </c>
+      <c r="X21">
+        <v>26</v>
+      </c>
+      <c r="Y21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>143</v>
+      </c>
+      <c r="N22">
+        <v>174</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>62</v>
+      </c>
+      <c r="S22">
+        <v>21</v>
+      </c>
+      <c r="T22">
+        <v>40</v>
+      </c>
+      <c r="U22">
+        <v>31</v>
+      </c>
+      <c r="V22">
+        <v>42</v>
+      </c>
+      <c r="W22">
+        <v>22</v>
+      </c>
+      <c r="X22">
+        <v>18</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <f>B3-J14</f>
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:Y25" si="0">C3-K14</f>
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:Y26" si="1">B4-J15</f>
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:Y27" si="2">B5-J16</f>
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:Y28" si="3">B6-J17</f>
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:Y29" si="4">B7-J18</f>
+        <v>186</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>217</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:Y30" si="5">B8-J19</f>
+        <v>371</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>285</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>269</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>398</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>446</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>447</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:Y31" si="6">B9-J20</f>
+        <v>541</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>419</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>381</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>496</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>481</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>483</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>612</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>705</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>474</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>483</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>551</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>554</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>502</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>564</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>511</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="6"/>
+        <v>484</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:Y32" si="7">B10-J21</f>
+        <v>846</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>633</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>649</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>551</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>611</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>692</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>598</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>725</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>751</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>696</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>681</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>845</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>874</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>618</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>668</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>745</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>863</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>745</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="7"/>
+        <v>791</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>863</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>804</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="7"/>
+        <v>724</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="7"/>
+        <v>701</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="7"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="8">B11-J22</f>
+        <v>730</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33" si="9">C11-K22</f>
+        <v>547</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="10">D11-L22</f>
+        <v>442</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="11">E11-M22</f>
+        <v>483</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="12">F11-N22</f>
+        <v>467</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="13">G11-O22</f>
+        <v>573</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="14">H11-P22</f>
+        <v>609</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="15">I11-Q22</f>
+        <v>626</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="16">J11-R22</f>
+        <v>563</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33" si="17">K11-S22</f>
+        <v>607</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33" si="18">L11-T22</f>
+        <v>596</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="19">M11-U22</f>
+        <v>760</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33" si="20">N11-V22</f>
+        <v>747</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33" si="21">O11-W22</f>
+        <v>534</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33" si="22">P11-X22</f>
+        <v>524</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33" si="23">Q11-Y22</f>
+        <v>651</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33" si="24">R11-Z22</f>
+        <v>769</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33" si="25">S11-AA22</f>
+        <v>619</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ref="T33" si="26">T11-AB22</f>
+        <v>575</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33" si="27">U11-AC22</f>
+        <v>722</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33" si="28">V11-AD22</f>
+        <v>707</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33" si="29">W11-AE22</f>
+        <v>603</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33" si="30">X11-AF22</f>
+        <v>616</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33" si="31">Y11-AG22</f>
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3926422-6703-41F5-BB88-D4446DCC9B4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1591,12 +9295,646 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C325EDE-41B1-47E7-8DBE-22DBE1D84A13}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>59</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>194</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>166</v>
+      </c>
+      <c r="F10">
+        <v>209</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>81</v>
+      </c>
+      <c r="K10">
+        <v>37</v>
+      </c>
+      <c r="L10">
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>143</v>
+      </c>
+      <c r="F11">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>42</v>
+      </c>
+      <c r="O11">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -3,18 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F6B10-D79C-4B78-88E4-C988A42CC2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C3F76-2BDA-4C43-B910-903927E1A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="12078" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="by Quarter" sheetId="3" r:id="rId1"/>
-    <sheet name="conclusions" sheetId="5" r:id="rId2"/>
-    <sheet name="all-cause deaths" sheetId="1" r:id="rId3"/>
-    <sheet name="covid deaths by quarter" sheetId="4" r:id="rId4"/>
-    <sheet name="covid deaths" sheetId="2" r:id="rId5"/>
+    <sheet name="conclusions" sheetId="5" r:id="rId1"/>
+    <sheet name="by Quarter" sheetId="3" r:id="rId2"/>
+    <sheet name="cases in LTCF" sheetId="6" r:id="rId3"/>
+    <sheet name="all-cause deaths" sheetId="1" r:id="rId4"/>
+    <sheet name="covid deaths by quarter" sheetId="4" r:id="rId5"/>
+    <sheet name="covid deaths" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
   <si>
     <t>age_group</t>
   </si>
@@ -192,6 +196,42 @@
   <si>
     <t>CACM</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of New_cases</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Qtr1</t>
+  </si>
+  <si>
+    <t>Qtr2</t>
+  </si>
+  <si>
+    <t>Qtr3</t>
+  </si>
+  <si>
+    <t>Qtr4</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Linked to source</t>
+  </si>
+  <si>
+    <t>local values only copy</t>
+  </si>
+  <si>
+    <t>NCACM % inncrease of Q1 2021 vs. Q1 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -242,10 +282,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5609,6 +5656,152 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C757BD61-29FD-A98C-EB2C-D99CF684FBAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="377190"/>
+          <a:ext cx="10439400" cy="4004310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Q1 2021</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> vs Q1 2020 is shows a large statistically significant increase in non-COVID NCACM. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>It was 66% for those in their 60s an 30% for those in their 70s.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>It wasn't COVID since these are NOT covid deaths. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>the question of the Q4 2020 COVID deaths vs. Q1 2021 COVID deaths depends on COVID cases. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Earlier analysis showed the CFR increased. But this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>there are two ways to validate the COVID cases:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>1. the actual reported cases in LTCFs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>2. the wastewater </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5682,114 +5875,2815 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C757BD61-29FD-A98C-EB2C-D99CF684FBAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="739140" y="304800"/>
-          <a:ext cx="10439400" cy="4076700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
-            <a:t>Q1 2021</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t> vs Q1 2020 is HIGHLY statistically significant increase in NCACM (30%)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>the question of the Q4 2020 COVID deaths vs. Q1 2021 COVID deaths depends on COVID cases.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>there are two ways to esimate the COVID cases:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>1. the actual reported cases in LTCFs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>2. the wasewater</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45612.629074189812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="376" xr:uid="{F2FD9A7A-8820-4EED-8159-25ACCA9C5CA0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C377" sheet="COVID-19_cases_at_Long_Term_Car" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="New_cases" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="173"/>
+    </cacheField>
+    <cacheField name="Total_cases" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6393"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-24T00:00:00" maxDate="2021-05-06T00:00:00" count="376">
+        <d v="2020-02-24T00:00:00"/>
+        <d v="2020-03-04T00:00:00"/>
+        <d v="2020-03-06T00:00:00"/>
+        <d v="2020-03-07T00:00:00"/>
+        <d v="2020-03-08T00:00:00"/>
+        <d v="2020-03-09T00:00:00"/>
+        <d v="2020-03-10T00:00:00"/>
+        <d v="2020-03-11T00:00:00"/>
+        <d v="2020-03-12T00:00:00"/>
+        <d v="2020-03-13T00:00:00"/>
+        <d v="2020-03-14T00:00:00"/>
+        <d v="2020-03-15T00:00:00"/>
+        <d v="2020-03-17T00:00:00"/>
+        <d v="2020-03-18T00:00:00"/>
+        <d v="2020-03-20T00:00:00"/>
+        <d v="2020-03-21T00:00:00"/>
+        <d v="2020-03-22T00:00:00"/>
+        <d v="2020-03-23T00:00:00"/>
+        <d v="2020-03-24T00:00:00"/>
+        <d v="2020-03-25T00:00:00"/>
+        <d v="2020-03-26T00:00:00"/>
+        <d v="2020-03-27T00:00:00"/>
+        <d v="2020-03-28T00:00:00"/>
+        <d v="2020-03-29T00:00:00"/>
+        <d v="2020-03-30T00:00:00"/>
+        <d v="2020-03-31T00:00:00"/>
+        <d v="2020-04-01T00:00:00"/>
+        <d v="2020-04-02T00:00:00"/>
+        <d v="2020-04-03T00:00:00"/>
+        <d v="2020-04-04T00:00:00"/>
+        <d v="2020-04-05T00:00:00"/>
+        <d v="2020-04-06T00:00:00"/>
+        <d v="2020-04-07T00:00:00"/>
+        <d v="2020-04-08T00:00:00"/>
+        <d v="2020-04-09T00:00:00"/>
+        <d v="2020-04-10T00:00:00"/>
+        <d v="2020-04-11T00:00:00"/>
+        <d v="2020-04-12T00:00:00"/>
+        <d v="2020-04-13T00:00:00"/>
+        <d v="2020-04-14T00:00:00"/>
+        <d v="2020-04-15T00:00:00"/>
+        <d v="2020-04-16T00:00:00"/>
+        <d v="2020-04-17T00:00:00"/>
+        <d v="2020-04-18T00:00:00"/>
+        <d v="2020-04-19T00:00:00"/>
+        <d v="2020-04-20T00:00:00"/>
+        <d v="2020-04-21T00:00:00"/>
+        <d v="2020-04-22T00:00:00"/>
+        <d v="2020-04-23T00:00:00"/>
+        <d v="2020-04-24T00:00:00"/>
+        <d v="2020-04-25T00:00:00"/>
+        <d v="2020-04-26T00:00:00"/>
+        <d v="2020-04-27T00:00:00"/>
+        <d v="2020-04-28T00:00:00"/>
+        <d v="2020-04-29T00:00:00"/>
+        <d v="2020-04-30T00:00:00"/>
+        <d v="2020-05-01T00:00:00"/>
+        <d v="2020-05-02T00:00:00"/>
+        <d v="2020-05-03T00:00:00"/>
+        <d v="2020-05-04T00:00:00"/>
+        <d v="2020-05-05T00:00:00"/>
+        <d v="2020-05-06T00:00:00"/>
+        <d v="2020-05-07T00:00:00"/>
+        <d v="2020-05-08T00:00:00"/>
+        <d v="2020-05-09T00:00:00"/>
+        <d v="2020-05-10T00:00:00"/>
+        <d v="2020-05-11T00:00:00"/>
+        <d v="2020-05-13T00:00:00"/>
+        <d v="2020-05-16T00:00:00"/>
+        <d v="2020-05-18T00:00:00"/>
+        <d v="2020-05-19T00:00:00"/>
+        <d v="2020-05-20T00:00:00"/>
+        <d v="2020-05-21T00:00:00"/>
+        <d v="2020-05-22T00:00:00"/>
+        <d v="2020-05-26T00:00:00"/>
+        <d v="2020-05-27T00:00:00"/>
+        <d v="2020-05-28T00:00:00"/>
+        <d v="2020-05-29T00:00:00"/>
+        <d v="2020-05-30T00:00:00"/>
+        <d v="2020-06-01T00:00:00"/>
+        <d v="2020-06-02T00:00:00"/>
+        <d v="2020-06-03T00:00:00"/>
+        <d v="2020-06-04T00:00:00"/>
+        <d v="2020-06-05T00:00:00"/>
+        <d v="2020-06-06T00:00:00"/>
+        <d v="2020-06-07T00:00:00"/>
+        <d v="2020-06-08T00:00:00"/>
+        <d v="2020-06-09T00:00:00"/>
+        <d v="2020-06-10T00:00:00"/>
+        <d v="2020-06-11T00:00:00"/>
+        <d v="2020-06-12T00:00:00"/>
+        <d v="2020-06-13T00:00:00"/>
+        <d v="2020-06-14T00:00:00"/>
+        <d v="2020-06-15T00:00:00"/>
+        <d v="2020-06-16T00:00:00"/>
+        <d v="2020-06-17T00:00:00"/>
+        <d v="2020-06-18T00:00:00"/>
+        <d v="2020-06-19T00:00:00"/>
+        <d v="2020-06-20T00:00:00"/>
+        <d v="2020-06-21T00:00:00"/>
+        <d v="2020-06-22T00:00:00"/>
+        <d v="2020-06-23T00:00:00"/>
+        <d v="2020-06-24T00:00:00"/>
+        <d v="2020-06-25T00:00:00"/>
+        <d v="2020-06-26T00:00:00"/>
+        <d v="2020-06-27T00:00:00"/>
+        <d v="2020-06-28T00:00:00"/>
+        <d v="2020-06-29T00:00:00"/>
+        <d v="2020-06-30T00:00:00"/>
+        <d v="2020-07-01T00:00:00"/>
+        <d v="2020-07-03T00:00:00"/>
+        <d v="2020-07-04T00:00:00"/>
+        <d v="2020-07-05T00:00:00"/>
+        <d v="2020-07-06T00:00:00"/>
+        <d v="2020-07-07T00:00:00"/>
+        <d v="2020-07-08T00:00:00"/>
+        <d v="2020-07-09T00:00:00"/>
+        <d v="2020-07-10T00:00:00"/>
+        <d v="2020-07-11T00:00:00"/>
+        <d v="2020-07-12T00:00:00"/>
+        <d v="2020-07-13T00:00:00"/>
+        <d v="2020-07-14T00:00:00"/>
+        <d v="2020-07-15T00:00:00"/>
+        <d v="2020-07-16T00:00:00"/>
+        <d v="2020-07-17T00:00:00"/>
+        <d v="2020-07-18T00:00:00"/>
+        <d v="2020-07-19T00:00:00"/>
+        <d v="2020-07-20T00:00:00"/>
+        <d v="2020-07-21T00:00:00"/>
+        <d v="2020-07-22T00:00:00"/>
+        <d v="2020-07-23T00:00:00"/>
+        <d v="2020-07-24T00:00:00"/>
+        <d v="2020-07-25T00:00:00"/>
+        <d v="2020-07-26T00:00:00"/>
+        <d v="2020-07-27T00:00:00"/>
+        <d v="2020-07-28T00:00:00"/>
+        <d v="2020-07-29T00:00:00"/>
+        <d v="2020-07-30T00:00:00"/>
+        <d v="2020-07-31T00:00:00"/>
+        <d v="2020-08-01T00:00:00"/>
+        <d v="2020-08-02T00:00:00"/>
+        <d v="2020-08-03T00:00:00"/>
+        <d v="2020-08-04T00:00:00"/>
+        <d v="2020-08-05T00:00:00"/>
+        <d v="2020-08-06T00:00:00"/>
+        <d v="2020-08-07T00:00:00"/>
+        <d v="2020-08-08T00:00:00"/>
+        <d v="2020-08-09T00:00:00"/>
+        <d v="2020-08-10T00:00:00"/>
+        <d v="2020-08-11T00:00:00"/>
+        <d v="2020-08-12T00:00:00"/>
+        <d v="2020-08-13T00:00:00"/>
+        <d v="2020-08-14T00:00:00"/>
+        <d v="2020-08-15T00:00:00"/>
+        <d v="2020-08-16T00:00:00"/>
+        <d v="2020-08-17T00:00:00"/>
+        <d v="2020-08-18T00:00:00"/>
+        <d v="2020-08-19T00:00:00"/>
+        <d v="2020-08-20T00:00:00"/>
+        <d v="2020-08-21T00:00:00"/>
+        <d v="2020-08-22T00:00:00"/>
+        <d v="2020-08-23T00:00:00"/>
+        <d v="2020-08-24T00:00:00"/>
+        <d v="2020-08-25T00:00:00"/>
+        <d v="2020-08-26T00:00:00"/>
+        <d v="2020-08-27T00:00:00"/>
+        <d v="2020-08-28T00:00:00"/>
+        <d v="2020-08-29T00:00:00"/>
+        <d v="2020-08-30T00:00:00"/>
+        <d v="2020-08-31T00:00:00"/>
+        <d v="2020-09-01T00:00:00"/>
+        <d v="2020-09-02T00:00:00"/>
+        <d v="2020-09-03T00:00:00"/>
+        <d v="2020-09-04T00:00:00"/>
+        <d v="2020-09-05T00:00:00"/>
+        <d v="2020-09-06T00:00:00"/>
+        <d v="2020-09-07T00:00:00"/>
+        <d v="2020-09-08T00:00:00"/>
+        <d v="2020-09-09T00:00:00"/>
+        <d v="2020-09-10T00:00:00"/>
+        <d v="2020-09-12T00:00:00"/>
+        <d v="2020-09-13T00:00:00"/>
+        <d v="2020-09-14T00:00:00"/>
+        <d v="2020-09-15T00:00:00"/>
+        <d v="2020-09-16T00:00:00"/>
+        <d v="2020-09-17T00:00:00"/>
+        <d v="2020-09-18T00:00:00"/>
+        <d v="2020-09-19T00:00:00"/>
+        <d v="2020-09-20T00:00:00"/>
+        <d v="2020-09-21T00:00:00"/>
+        <d v="2020-09-22T00:00:00"/>
+        <d v="2020-09-23T00:00:00"/>
+        <d v="2020-09-24T00:00:00"/>
+        <d v="2020-09-25T00:00:00"/>
+        <d v="2020-09-26T00:00:00"/>
+        <d v="2020-09-27T00:00:00"/>
+        <d v="2020-09-28T00:00:00"/>
+        <d v="2020-09-29T00:00:00"/>
+        <d v="2020-09-30T00:00:00"/>
+        <d v="2020-10-01T00:00:00"/>
+        <d v="2020-10-02T00:00:00"/>
+        <d v="2020-10-03T00:00:00"/>
+        <d v="2020-10-04T00:00:00"/>
+        <d v="2020-10-05T00:00:00"/>
+        <d v="2020-10-06T00:00:00"/>
+        <d v="2020-10-07T00:00:00"/>
+        <d v="2020-10-08T00:00:00"/>
+        <d v="2020-10-09T00:00:00"/>
+        <d v="2020-10-10T00:00:00"/>
+        <d v="2020-10-11T00:00:00"/>
+        <d v="2020-10-12T00:00:00"/>
+        <d v="2020-10-13T00:00:00"/>
+        <d v="2020-10-14T00:00:00"/>
+        <d v="2020-10-15T00:00:00"/>
+        <d v="2020-10-16T00:00:00"/>
+        <d v="2020-10-17T00:00:00"/>
+        <d v="2020-10-18T00:00:00"/>
+        <d v="2020-10-19T00:00:00"/>
+        <d v="2020-10-20T00:00:00"/>
+        <d v="2020-10-21T00:00:00"/>
+        <d v="2020-10-22T00:00:00"/>
+        <d v="2020-10-23T00:00:00"/>
+        <d v="2020-10-24T00:00:00"/>
+        <d v="2020-10-26T00:00:00"/>
+        <d v="2020-10-27T00:00:00"/>
+        <d v="2020-10-28T00:00:00"/>
+        <d v="2020-10-29T00:00:00"/>
+        <d v="2020-10-30T00:00:00"/>
+        <d v="2020-10-31T00:00:00"/>
+        <d v="2020-11-01T00:00:00"/>
+        <d v="2020-11-02T00:00:00"/>
+        <d v="2020-11-03T00:00:00"/>
+        <d v="2020-11-04T00:00:00"/>
+        <d v="2020-11-05T00:00:00"/>
+        <d v="2020-11-06T00:00:00"/>
+        <d v="2020-11-07T00:00:00"/>
+        <d v="2020-11-08T00:00:00"/>
+        <d v="2020-11-09T00:00:00"/>
+        <d v="2020-11-10T00:00:00"/>
+        <d v="2020-11-11T00:00:00"/>
+        <d v="2020-11-12T00:00:00"/>
+        <d v="2020-11-13T00:00:00"/>
+        <d v="2020-11-14T00:00:00"/>
+        <d v="2020-11-15T00:00:00"/>
+        <d v="2020-11-16T00:00:00"/>
+        <d v="2020-11-17T00:00:00"/>
+        <d v="2020-11-18T00:00:00"/>
+        <d v="2020-11-19T00:00:00"/>
+        <d v="2020-11-20T00:00:00"/>
+        <d v="2020-11-21T00:00:00"/>
+        <d v="2020-11-22T00:00:00"/>
+        <d v="2020-11-23T00:00:00"/>
+        <d v="2020-11-24T00:00:00"/>
+        <d v="2020-11-25T00:00:00"/>
+        <d v="2020-11-26T00:00:00"/>
+        <d v="2020-11-27T00:00:00"/>
+        <d v="2020-11-28T00:00:00"/>
+        <d v="2020-11-29T00:00:00"/>
+        <d v="2020-11-30T00:00:00"/>
+        <d v="2020-12-01T00:00:00"/>
+        <d v="2020-12-02T00:00:00"/>
+        <d v="2020-12-03T00:00:00"/>
+        <d v="2020-12-04T00:00:00"/>
+        <d v="2020-12-05T00:00:00"/>
+        <d v="2020-12-06T00:00:00"/>
+        <d v="2020-12-07T00:00:00"/>
+        <d v="2020-12-08T00:00:00"/>
+        <d v="2020-12-09T00:00:00"/>
+        <d v="2020-12-10T00:00:00"/>
+        <d v="2020-12-11T00:00:00"/>
+        <d v="2020-12-12T00:00:00"/>
+        <d v="2020-12-13T00:00:00"/>
+        <d v="2020-12-14T00:00:00"/>
+        <d v="2020-12-15T00:00:00"/>
+        <d v="2020-12-16T00:00:00"/>
+        <d v="2020-12-17T00:00:00"/>
+        <d v="2020-12-18T00:00:00"/>
+        <d v="2020-12-19T00:00:00"/>
+        <d v="2020-12-20T00:00:00"/>
+        <d v="2020-12-21T00:00:00"/>
+        <d v="2020-12-22T00:00:00"/>
+        <d v="2020-12-23T00:00:00"/>
+        <d v="2020-12-24T00:00:00"/>
+        <d v="2020-12-25T00:00:00"/>
+        <d v="2020-12-26T00:00:00"/>
+        <d v="2020-12-27T00:00:00"/>
+        <d v="2020-12-28T00:00:00"/>
+        <d v="2020-12-29T00:00:00"/>
+        <d v="2020-12-30T00:00:00"/>
+        <d v="2020-12-31T00:00:00"/>
+        <d v="2021-01-01T00:00:00"/>
+        <d v="2021-01-02T00:00:00"/>
+        <d v="2021-01-03T00:00:00"/>
+        <d v="2021-01-04T00:00:00"/>
+        <d v="2021-01-05T00:00:00"/>
+        <d v="2021-01-06T00:00:00"/>
+        <d v="2021-01-07T00:00:00"/>
+        <d v="2021-01-08T00:00:00"/>
+        <d v="2021-01-09T00:00:00"/>
+        <d v="2021-01-10T00:00:00"/>
+        <d v="2021-01-11T00:00:00"/>
+        <d v="2021-01-12T00:00:00"/>
+        <d v="2021-01-13T00:00:00"/>
+        <d v="2021-01-14T00:00:00"/>
+        <d v="2021-01-15T00:00:00"/>
+        <d v="2021-01-16T00:00:00"/>
+        <d v="2021-01-17T00:00:00"/>
+        <d v="2021-01-18T00:00:00"/>
+        <d v="2021-01-19T00:00:00"/>
+        <d v="2021-01-20T00:00:00"/>
+        <d v="2021-01-21T00:00:00"/>
+        <d v="2021-01-22T00:00:00"/>
+        <d v="2021-01-23T00:00:00"/>
+        <d v="2021-01-24T00:00:00"/>
+        <d v="2021-01-25T00:00:00"/>
+        <d v="2021-01-26T00:00:00"/>
+        <d v="2021-01-27T00:00:00"/>
+        <d v="2021-01-28T00:00:00"/>
+        <d v="2021-01-29T00:00:00"/>
+        <d v="2021-01-30T00:00:00"/>
+        <d v="2021-01-31T00:00:00"/>
+        <d v="2021-02-01T00:00:00"/>
+        <d v="2021-02-02T00:00:00"/>
+        <d v="2021-02-03T00:00:00"/>
+        <d v="2021-02-04T00:00:00"/>
+        <d v="2021-02-05T00:00:00"/>
+        <d v="2021-02-06T00:00:00"/>
+        <d v="2021-02-07T00:00:00"/>
+        <d v="2021-02-08T00:00:00"/>
+        <d v="2021-02-09T00:00:00"/>
+        <d v="2021-02-10T00:00:00"/>
+        <d v="2021-02-11T00:00:00"/>
+        <d v="2021-02-12T00:00:00"/>
+        <d v="2021-02-13T00:00:00"/>
+        <d v="2021-02-15T00:00:00"/>
+        <d v="2021-02-17T00:00:00"/>
+        <d v="2021-02-18T00:00:00"/>
+        <d v="2021-02-19T00:00:00"/>
+        <d v="2021-02-20T00:00:00"/>
+        <d v="2021-02-21T00:00:00"/>
+        <d v="2021-02-22T00:00:00"/>
+        <d v="2021-02-23T00:00:00"/>
+        <d v="2021-02-24T00:00:00"/>
+        <d v="2021-02-26T00:00:00"/>
+        <d v="2021-02-28T00:00:00"/>
+        <d v="2021-03-01T00:00:00"/>
+        <d v="2021-03-08T00:00:00"/>
+        <d v="2021-03-10T00:00:00"/>
+        <d v="2021-03-11T00:00:00"/>
+        <d v="2021-03-12T00:00:00"/>
+        <d v="2021-03-13T00:00:00"/>
+        <d v="2021-03-14T00:00:00"/>
+        <d v="2021-03-15T00:00:00"/>
+        <d v="2021-03-23T00:00:00"/>
+        <d v="2021-03-26T00:00:00"/>
+        <d v="2021-03-27T00:00:00"/>
+        <d v="2021-03-30T00:00:00"/>
+        <d v="2021-03-31T00:00:00"/>
+        <d v="2021-04-01T00:00:00"/>
+        <d v="2021-04-04T00:00:00"/>
+        <d v="2021-04-05T00:00:00"/>
+        <d v="2021-04-06T00:00:00"/>
+        <d v="2021-04-07T00:00:00"/>
+        <d v="2021-04-09T00:00:00"/>
+        <d v="2021-04-10T00:00:00"/>
+        <d v="2021-04-13T00:00:00"/>
+        <d v="2021-04-15T00:00:00"/>
+        <d v="2021-04-19T00:00:00"/>
+        <d v="2021-04-21T00:00:00"/>
+        <d v="2021-04-22T00:00:00"/>
+        <d v="2021-04-26T00:00:00"/>
+        <d v="2021-04-27T00:00:00"/>
+        <d v="2021-04-28T00:00:00"/>
+        <d v="2021-04-29T00:00:00"/>
+        <d v="2021-05-03T00:00:00"/>
+        <d v="2021-05-05T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="5"/>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="months" startDate="2020-02-24T00:00:00" endDate="2021-05-06T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2/24/2020"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;5/6/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="quarters" startDate="2020-02-24T00:00:00" endDate="2021-05-06T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;2/24/2020"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;5/6/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="years" startDate="2020-02-24T00:00:00" endDate="2021-05-06T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;2/24/2020"/>
+          <s v="2020"/>
+          <s v="2021"/>
+          <s v="&gt;5/6/2021"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="376">
+  <r>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="9"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="14"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="17"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="18"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="20"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="22"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="27"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="31"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="32"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="35"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="38"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="42"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="50"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="57"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="63"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="69"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="75"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="92"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="101"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="117"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="130"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="152"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="167"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="184"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="201"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="230"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="275"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="300"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="326"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="357"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="382"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="390"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="407"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="411"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="425"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="431"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="437"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="442"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="449"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="455"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="479"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="481"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="496"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="506"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="514"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="521"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="526"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="534"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="540"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="548"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="552"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="554"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="562"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="564"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="580"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="582"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="603"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="614"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="617"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="622"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="627"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="628"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="630"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="632"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="636"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="638"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="643"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="646"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="647"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="649"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="650"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="653"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="654"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="659"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="664"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="668"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="669"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="673"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="679"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="682"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="686"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="691"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="693"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="695"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="696"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="697"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="708"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="723"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="733"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="744"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="748"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="757"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="762"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="779"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="789"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="801"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="805"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="811"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="830"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="842"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="873"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="880"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="886"/>
+    <x v="109"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="889"/>
+    <x v="110"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="890"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="904"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="929"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="943"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="953"/>
+    <x v="115"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="961"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="971"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="974"/>
+    <x v="118"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="979"/>
+    <x v="119"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="990"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="1022"/>
+    <x v="121"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1031"/>
+    <x v="122"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="1042"/>
+    <x v="123"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1049"/>
+    <x v="124"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1053"/>
+    <x v="125"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1057"/>
+    <x v="126"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1061"/>
+    <x v="127"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1066"/>
+    <x v="128"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1076"/>
+    <x v="129"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1077"/>
+    <x v="130"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1086"/>
+    <x v="131"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1087"/>
+    <x v="132"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1095"/>
+    <x v="133"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1103"/>
+    <x v="134"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1111"/>
+    <x v="135"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1120"/>
+    <x v="136"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1128"/>
+    <x v="137"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1134"/>
+    <x v="138"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1135"/>
+    <x v="139"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1136"/>
+    <x v="140"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1148"/>
+    <x v="141"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1154"/>
+    <x v="142"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="1169"/>
+    <x v="143"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1179"/>
+    <x v="144"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1191"/>
+    <x v="145"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="1209"/>
+    <x v="146"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1218"/>
+    <x v="147"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="1253"/>
+    <x v="148"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1261"/>
+    <x v="149"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="1272"/>
+    <x v="150"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1284"/>
+    <x v="151"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1294"/>
+    <x v="152"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1295"/>
+    <x v="153"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1299"/>
+    <x v="154"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="1314"/>
+    <x v="155"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="1329"/>
+    <x v="156"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="1342"/>
+    <x v="157"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1348"/>
+    <x v="158"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1351"/>
+    <x v="159"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1356"/>
+    <x v="160"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1360"/>
+    <x v="161"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1369"/>
+    <x v="162"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1374"/>
+    <x v="163"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1380"/>
+    <x v="164"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1384"/>
+    <x v="165"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1387"/>
+    <x v="166"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1389"/>
+    <x v="167"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1390"/>
+    <x v="168"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1399"/>
+    <x v="169"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1408"/>
+    <x v="170"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1416"/>
+    <x v="171"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1422"/>
+    <x v="172"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="1438"/>
+    <x v="173"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1441"/>
+    <x v="174"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1443"/>
+    <x v="175"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1445"/>
+    <x v="176"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1448"/>
+    <x v="177"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1454"/>
+    <x v="178"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="1471"/>
+    <x v="179"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1474"/>
+    <x v="180"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1476"/>
+    <x v="181"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1480"/>
+    <x v="182"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="1508"/>
+    <x v="183"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1513"/>
+    <x v="184"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1520"/>
+    <x v="185"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="1531"/>
+    <x v="186"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1533"/>
+    <x v="187"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1536"/>
+    <x v="188"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="1552"/>
+    <x v="189"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1556"/>
+    <x v="190"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1560"/>
+    <x v="191"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1569"/>
+    <x v="192"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1574"/>
+    <x v="193"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1578"/>
+    <x v="194"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1582"/>
+    <x v="195"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1590"/>
+    <x v="196"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1593"/>
+    <x v="197"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1600"/>
+    <x v="198"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1606"/>
+    <x v="199"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1609"/>
+    <x v="200"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1613"/>
+    <x v="201"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1615"/>
+    <x v="202"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="1627"/>
+    <x v="203"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1634"/>
+    <x v="204"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="1635"/>
+    <x v="205"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="1655"/>
+    <x v="206"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1658"/>
+    <x v="207"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1663"/>
+    <x v="208"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1668"/>
+    <x v="209"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="1692"/>
+    <x v="210"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1700"/>
+    <x v="211"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1707"/>
+    <x v="212"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="1750"/>
+    <x v="213"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1755"/>
+    <x v="214"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1757"/>
+    <x v="215"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1764"/>
+    <x v="216"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="1782"/>
+    <x v="217"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="1793"/>
+    <x v="218"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1798"/>
+    <x v="219"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1805"/>
+    <x v="220"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1810"/>
+    <x v="221"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="1814"/>
+    <x v="222"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1819"/>
+    <x v="223"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="1821"/>
+    <x v="224"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1824"/>
+    <x v="225"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="1833"/>
+    <x v="226"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1839"/>
+    <x v="227"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1844"/>
+    <x v="228"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="1847"/>
+    <x v="229"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1885"/>
+    <x v="230"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1890"/>
+    <x v="231"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1896"/>
+    <x v="232"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1906"/>
+    <x v="233"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1916"/>
+    <x v="234"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="1922"/>
+    <x v="235"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="1930"/>
+    <x v="236"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="1948"/>
+    <x v="237"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="1990"/>
+    <x v="238"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="2000"/>
+    <x v="239"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="2012"/>
+    <x v="240"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="2020"/>
+    <x v="241"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="2040"/>
+    <x v="242"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="2052"/>
+    <x v="243"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="2071"/>
+    <x v="244"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="2106"/>
+    <x v="245"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="2138"/>
+    <x v="246"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="2162"/>
+    <x v="247"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="2207"/>
+    <x v="248"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="2226"/>
+    <x v="249"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="2241"/>
+    <x v="250"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="2305"/>
+    <x v="251"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="2353"/>
+    <x v="252"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="2422"/>
+    <x v="253"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="2437"/>
+    <x v="254"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="2488"/>
+    <x v="255"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="2572"/>
+    <x v="256"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="2600"/>
+    <x v="257"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <n v="2773"/>
+    <x v="258"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="2823"/>
+    <x v="259"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="2901"/>
+    <x v="260"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="2977"/>
+    <x v="261"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="3105"/>
+    <x v="262"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="3133"/>
+    <x v="263"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="3165"/>
+    <x v="264"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <n v="3330"/>
+    <x v="265"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <n v="3453"/>
+    <x v="266"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="3511"/>
+    <x v="267"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="3593"/>
+    <x v="268"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <n v="3707"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="3747"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="3808"/>
+    <x v="271"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <n v="3959"/>
+    <x v="272"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="4053"/>
+    <x v="273"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="4141"/>
+    <x v="274"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <n v="4260"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="4372"/>
+    <x v="276"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="4438"/>
+    <x v="277"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="4510"/>
+    <x v="278"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <n v="4664"/>
+    <x v="279"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="4744"/>
+    <x v="280"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <n v="4850"/>
+    <x v="281"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="4943"/>
+    <x v="282"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="4962"/>
+    <x v="283"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="5064"/>
+    <x v="284"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="5104"/>
+    <x v="285"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <n v="5209"/>
+    <x v="286"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="5267"/>
+    <x v="287"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="5290"/>
+    <x v="288"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="5349"/>
+    <x v="289"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="5363"/>
+    <x v="290"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="5391"/>
+    <x v="291"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="5427"/>
+    <x v="292"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="5507"/>
+    <x v="293"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="5543"/>
+    <x v="294"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="5572"/>
+    <x v="295"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="5651"/>
+    <x v="296"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="5673"/>
+    <x v="297"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="5697"/>
+    <x v="298"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="5731"/>
+    <x v="299"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="5809"/>
+    <x v="300"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="5852"/>
+    <x v="301"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="5875"/>
+    <x v="302"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="5932"/>
+    <x v="303"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="5958"/>
+    <x v="304"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="5981"/>
+    <x v="305"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="5996"/>
+    <x v="306"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="6043"/>
+    <x v="307"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="6060"/>
+    <x v="308"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="6073"/>
+    <x v="309"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="6105"/>
+    <x v="310"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="6121"/>
+    <x v="311"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="6131"/>
+    <x v="312"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="6141"/>
+    <x v="313"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="6163"/>
+    <x v="314"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="6175"/>
+    <x v="315"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="6183"/>
+    <x v="316"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="6190"/>
+    <x v="317"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="6206"/>
+    <x v="318"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="6225"/>
+    <x v="319"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="6240"/>
+    <x v="320"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="6257"/>
+    <x v="321"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="6267"/>
+    <x v="322"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="6277"/>
+    <x v="323"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="6283"/>
+    <x v="324"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="6295"/>
+    <x v="325"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6297"/>
+    <x v="326"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="6301"/>
+    <x v="327"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="6312"/>
+    <x v="328"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="6319"/>
+    <x v="329"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="6323"/>
+    <x v="330"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="6329"/>
+    <x v="331"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6331"/>
+    <x v="332"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6332"/>
+    <x v="333"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6334"/>
+    <x v="334"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6336"/>
+    <x v="335"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6338"/>
+    <x v="336"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6341"/>
+    <x v="337"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6342"/>
+    <x v="338"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6343"/>
+    <x v="339"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6345"/>
+    <x v="340"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="6349"/>
+    <x v="341"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6350"/>
+    <x v="342"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6352"/>
+    <x v="343"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6353"/>
+    <x v="344"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6354"/>
+    <x v="345"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6356"/>
+    <x v="346"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6357"/>
+    <x v="347"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6359"/>
+    <x v="348"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6361"/>
+    <x v="349"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6362"/>
+    <x v="350"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6363"/>
+    <x v="351"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6364"/>
+    <x v="352"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6365"/>
+    <x v="353"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6366"/>
+    <x v="354"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6367"/>
+    <x v="355"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6368"/>
+    <x v="356"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6369"/>
+    <x v="357"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6370"/>
+    <x v="358"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6372"/>
+    <x v="359"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6373"/>
+    <x v="360"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6374"/>
+    <x v="361"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6376"/>
+    <x v="362"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6377"/>
+    <x v="363"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6378"/>
+    <x v="364"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6380"/>
+    <x v="365"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6381"/>
+    <x v="366"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6382"/>
+    <x v="367"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="6384"/>
+    <x v="368"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6385"/>
+    <x v="369"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6386"/>
+    <x v="370"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6387"/>
+    <x v="371"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6388"/>
+    <x v="372"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6389"/>
+    <x v="373"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <n v="6390"/>
+    <x v="374"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6393"/>
+    <x v="375"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61557245-6283-4DF5-A42B-EE16A255B64C}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="377">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="5"/>
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of New_cases" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6070,11 +8964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3926422-6703-41F5-BB88-D4446DCC9B4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7583,11 +10490,11 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:Y28" si="3">B6-J17</f>
+        <f>B6-J17</f>
         <v>80</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B28:Y28" si="3">C6-K17</f>
         <v>75</v>
       </c>
       <c r="D28">
@@ -8182,6 +11089,92 @@
       <c r="Y33">
         <f t="shared" ref="Y33" si="31">Y11-AG22</f>
         <v>661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <f>N25/J25</f>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N45" si="32">N26/J26</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="32"/>
+        <v>1.0151515151515151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="32"/>
+        <v>1.3444976076555024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="32"/>
+        <v>1.6579925650557621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="32"/>
+        <v>1.3031423290203328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="32"/>
+        <v>1.1637816245006658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="32"/>
+        <v>1.3268206039076376</v>
       </c>
     </row>
   </sheetData>
@@ -8191,20 +11184,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3926422-6703-41F5-BB88-D4446DCC9B4B}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A536F0DC-0CCF-477F-871D-085BAC07AB3E}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>5349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>779</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>720</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3749</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>1044</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>1020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>6393</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
@@ -9295,7 +12438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C325EDE-41B1-47E7-8DBE-22DBE1D84A13}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9929,7 +13072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>

--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C3F76-2BDA-4C43-B910-903927E1A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B7B556-2766-497D-843F-DCEA831A0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="67">
   <si>
     <t>age_group</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>NCACM % inncrease of Q1 2021 vs. Q1 2020</t>
+  </si>
+  <si>
+    <t>q4/q1 for covid deaths</t>
+  </si>
+  <si>
+    <t>q1 21 / q1 20 ncacm</t>
   </si>
 </sst>
 </file>
@@ -8978,10 +8984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11104,6 +11110,9 @@
         <f>N25/J25</f>
         <v>1.3846153846153846</v>
       </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
@@ -11175,6 +11184,63 @@
       <c r="N44">
         <f t="shared" si="32"/>
         <v>1.3268206039076376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <f>N17/M17</f>
+        <v>1.0625</v>
+      </c>
+      <c r="P47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N54" si="33">N18/M18</f>
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="33"/>
+        <v>1.7391304347826086</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="33"/>
+        <v>1.6440677966101696</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="33"/>
+        <v>1.2590361445783131</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="33"/>
+        <v>1.2167832167832169</v>
       </c>
     </row>
   </sheetData>

--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B7B556-2766-497D-843F-DCEA831A0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF5776-3E68-4566-BC38-38AE2EA19049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -230,13 +230,13 @@
     <t>local values only copy</t>
   </si>
   <si>
-    <t>NCACM % inncrease of Q1 2021 vs. Q1 2020</t>
-  </si>
-  <si>
     <t>q4/q1 for covid deaths</t>
   </si>
   <si>
-    <t>q1 21 / q1 20 ncacm</t>
+    <t>NCACM % inncrease of Q1 2021 vs. baseline(Q1 of 2018-2020)</t>
+  </si>
+  <si>
+    <t>stunning quarterly increase in COVID deaths after vax rollout</t>
   </si>
 </sst>
 </file>
@@ -8214,7 +8214,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61557245-6283-4DF5-A42B-EE16A255B64C}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61557245-6283-4DF5-A42B-EE16A255B64C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -8975,7 +8975,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8986,18 +8986,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>80</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="B28:Y28" si="3">C6-K17</f>
+        <f t="shared" ref="C28:Y28" si="3">C6-K17</f>
         <v>75</v>
       </c>
       <c r="D28">
@@ -10592,7 +10592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -11097,96 +11097,98 @@
         <v>661</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>64</v>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M35" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
         <v>31</v>
       </c>
       <c r="N36">
-        <f>N25/J25</f>
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="P36" t="s">
-        <v>66</v>
+        <f>N25/AVERAGE(B25, F25,J25)</f>
+        <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
         <v>32</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N45" si="32">N26/J26</f>
-        <v>1.05</v>
+        <f t="shared" ref="N37:N44" si="32">N26/AVERAGE(B26, F26,J26)</f>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
         <v>33</v>
       </c>
       <c r="N38">
         <f t="shared" si="32"/>
-        <v>1.0151515151515151</v>
+        <v>1.4671532846715329</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
         <v>34</v>
       </c>
       <c r="N39">
         <f t="shared" si="32"/>
-        <v>1.5</v>
+        <v>1.4101382488479264</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
         <v>35</v>
       </c>
       <c r="N40">
         <f t="shared" si="32"/>
-        <v>1.3444976076555024</v>
+        <v>1.646484375</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
         <v>36</v>
       </c>
       <c r="N41">
         <f t="shared" si="32"/>
-        <v>1.6579925650557621</v>
+        <v>1.5450346420323324</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
         <v>37</v>
       </c>
       <c r="N42">
         <f t="shared" si="32"/>
-        <v>1.3031423290203328</v>
+        <v>1.581899775617053</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
         <v>38</v>
       </c>
       <c r="N43">
         <f t="shared" si="32"/>
-        <v>1.1637816245006658</v>
+        <v>1.1875</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
         <v>39</v>
       </c>
       <c r="N44">
         <f t="shared" si="32"/>
-        <v>1.3268206039076376</v>
+        <v>1.2732954545454547</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>34</v>
       </c>
@@ -11194,20 +11196,20 @@
         <f>N17/M17</f>
         <v>1.0625</v>
       </c>
-      <c r="P47" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
         <v>35</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:N54" si="33">N18/M18</f>
+        <f t="shared" ref="N48:N52" si="33">N18/M18</f>
         <v>2.4375</v>
       </c>
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
         <v>36</v>
       </c>
@@ -11216,7 +11218,7 @@
         <v>1.7391304347826086</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
         <v>37</v>
       </c>
@@ -11225,7 +11227,7 @@
         <v>1.6440677966101696</v>
       </c>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M51" t="s">
         <v>38</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>1.2590361445783131</v>
       </c>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
         <v>39</v>
       </c>
@@ -11258,9 +11260,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -11274,7 +11276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -11372,7 +11374,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
@@ -11400,7 +11402,7 @@
         <v>6393</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -11421,14 +11423,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11523,7 +11525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -11808,7 +11810,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11998,7 +12000,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -12093,7 +12095,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -12188,7 +12190,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -12283,7 +12285,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -12473,27 +12475,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12512,14 +12514,14 @@
       <selection activeCell="A3" sqref="A3:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12572,7 +12574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12625,7 +12627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -12731,7 +12733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -12784,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12837,7 +12839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -12943,7 +12945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -12996,7 +12998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -13049,7 +13051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -13102,32 +13104,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -13146,14 +13148,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -13348,7 +13350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -13478,7 +13480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -13673,7 +13675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -13738,7 +13740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -13868,32 +13870,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>

--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF5776-3E68-4566-BC38-38AE2EA19049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58196154-568F-472B-8765-EF6145C8F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="71">
   <si>
     <t>age_group</t>
   </si>
@@ -238,6 +238,18 @@
   <si>
     <t>stunning quarterly increase in COVID deaths after vax rollout</t>
   </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Z-score</t>
+  </si>
+  <si>
+    <t>Q1/baseline</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +311,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8986,8 +8999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11097,90 +11110,251 @@
         <v>661</v>
       </c>
     </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M35" s="2" t="s">
-        <v>65</v>
+      <c r="N35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
         <v>31</v>
       </c>
-      <c r="N36">
-        <f>N25/AVERAGE(B25, F25,J25)</f>
+      <c r="N36" s="6">
+        <f>$N25/AVERAGE($B25, $F25,$J25)</f>
         <v>1.2272727272727273</v>
+      </c>
+      <c r="O36" s="6">
+        <f>AVERAGE($B25, $F25,$J25)</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="P36" s="6">
+        <f>$N25</f>
+        <v>36</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>SQRT(O36)</f>
+        <v>5.41602560309064</v>
+      </c>
+      <c r="R36" s="6">
+        <f>(P36-O36)/Q36</f>
+        <v>1.2309149097933276</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M37" t="s">
         <v>32</v>
       </c>
-      <c r="N37">
-        <f t="shared" ref="N37:N44" si="32">N26/AVERAGE(B26, F26,J26)</f>
+      <c r="N37" s="6">
+        <f t="shared" ref="N37:N44" si="32">$N26/AVERAGE($B26, $F26,$J26)</f>
         <v>1.75</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" ref="O37:O44" si="33">AVERAGE($B26, $F26,$J26)</f>
+        <v>24</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" ref="P37:P44" si="34">$N26</f>
+        <v>42</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" ref="Q37:Q44" si="35">SQRT(O37)</f>
+        <v>4.8989794855663558</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" ref="R37:R44" si="36">(P37-O37)/Q37</f>
+        <v>3.6742346141747673</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M38" t="s">
         <v>33</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="6">
         <f t="shared" si="32"/>
         <v>1.4671532846715329</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="33"/>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="34"/>
+        <v>67</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="35"/>
+        <v>6.757711644237764</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="36"/>
+        <v>3.1568871914687371</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M39" t="s">
         <v>34</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="6">
         <f t="shared" si="32"/>
         <v>1.4101382488479264</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="33"/>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="34"/>
+        <v>102</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="35"/>
+        <v>8.5049005481153817</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="36"/>
+        <v>3.4881850174298124</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M40" t="s">
         <v>35</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="6">
         <f t="shared" si="32"/>
         <v>1.646484375</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="33"/>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="34"/>
+        <v>281</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="35"/>
+        <v>13.063945294843617</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="36"/>
+        <v>8.445636508971166</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M41" t="s">
         <v>36</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="6">
         <f t="shared" si="32"/>
         <v>1.5450346420323324</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="33"/>
+        <v>288.66666666666669</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="34"/>
+        <v>446</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" si="35"/>
+        <v>16.990193249832878</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" si="36"/>
+        <v>9.2602438959828142</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
         <v>37</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="6">
         <f t="shared" si="32"/>
         <v>1.581899775617053</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="33"/>
+        <v>445.66666666666669</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="34"/>
+        <v>705</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="35"/>
+        <v>21.110818711425349</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" si="36"/>
+        <v>12.284380671270696</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>38</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="6">
         <f t="shared" si="32"/>
         <v>1.1875</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="33"/>
+        <v>736</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="34"/>
+        <v>874</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="35"/>
+        <v>27.129319932501073</v>
+      </c>
+      <c r="R43" s="6">
+        <f t="shared" si="36"/>
+        <v>5.0867474873439509</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
         <v>39</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="6">
         <f t="shared" si="32"/>
         <v>1.2732954545454547</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="33"/>
+        <v>586.66666666666663</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="34"/>
+        <v>747</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" si="35"/>
+        <v>24.221202832779934</v>
+      </c>
+      <c r="R44" s="6">
+        <f t="shared" si="36"/>
+        <v>6.6195446378222442</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -11202,7 +11376,7 @@
         <v>35</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:N52" si="33">N18/M18</f>
+        <f t="shared" ref="N48:N52" si="37">N18/M18</f>
         <v>2.4375</v>
       </c>
       <c r="P48" t="s">
@@ -11214,7 +11388,7 @@
         <v>36</v>
       </c>
       <c r="N49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.7391304347826086</v>
       </c>
     </row>
@@ -11223,7 +11397,7 @@
         <v>37</v>
       </c>
       <c r="N50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.6440677966101696</v>
       </c>
     </row>
@@ -11232,7 +11406,7 @@
         <v>38</v>
       </c>
       <c r="N51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.2590361445783131</v>
       </c>
     </row>
@@ -11241,7 +11415,7 @@
         <v>39</v>
       </c>
       <c r="N52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.2167832167832169</v>
       </c>
     </row>

--- a/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
+++ b/santa_clara_county/FOIA_data_request_kirsch_analysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58196154-568F-472B-8765-EF6145C8F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F0A9C3-E747-43AB-BCBE-474D6FA3EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conclusions" sheetId="5" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="cases in LTCF" sheetId="6" r:id="rId3"/>
     <sheet name="all-cause deaths" sheetId="1" r:id="rId4"/>
     <sheet name="covid deaths by quarter" sheetId="4" r:id="rId5"/>
-    <sheet name="covid deaths" sheetId="2" r:id="rId6"/>
+    <sheet name="covid deaths original" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="71">
   <si>
     <t>age_group</t>
   </si>
@@ -4559,6 +4559,353 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'by Quarter'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60-69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'by Quarter'!$B$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52BC-447C-8657-87ADB9E55BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="672736399"/>
+        <c:axId val="672759439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="672736399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672759439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672759439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672736399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4600,6 +4947,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5671,6 +6058,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5740,13 +6643,13 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t> vs Q1 2020 is shows a large statistically significant increase in non-COVID NCACM. </a:t>
+            <a:t> vs Q1 2020 is shows a large statistically significant increase in non-COVID ACM (NCACM). </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>It was 66% for those in their 60s an 30% for those in their 70s.</a:t>
+            <a:t>It was 66% for those in their 60s and 30% for those in their 70s.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5886,6 +6789,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E618CB6-ED7D-1F10-8AA7-BE1243D4AC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8227,7 +9166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61557245-6283-4DF5-A42B-EE16A255B64C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61557245-6283-4DF5-A42B-EE16A255B64C}" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -8999,8 +9938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05098F39-3EC2-40BB-B08C-FA352CE794D1}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,7 +12533,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AE8" sqref="AE8:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12600,8 +13539,8 @@
       <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
-        <v>41</v>
+      <c r="P12">
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -12652,6 +13591,22 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P3:P12)</f>
+        <v>11327</v>
+      </c>
+      <c r="U13">
+        <f>SUM(U3:U12)</f>
+        <v>11193</v>
+      </c>
+      <c r="Z13">
+        <f>SUM(Z3:Z12)</f>
+        <v>11363</v>
+      </c>
+      <c r="AE13">
+        <f>SUM(AE3:AE12)</f>
+        <v>10699</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -13318,7 +14273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
